--- a/Codelist Excel Files and Conversion Templates to XML/class-astmD5715.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/class-astmD5715.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\diggs-dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C044FCEE-3DB2-B541-A1BB-2F066C9291B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="8498" windowWidth="35843" windowHeight="20903" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -905,7 +906,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1266,7 +1267,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Lists"/>
@@ -1279,66 +1280,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DictionaryName" displayName="DictionaryName" ref="A1:E3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Start" dataDxfId="17"/>
-    <tableColumn id="4" name="Dictionary ID" dataDxfId="16"/>
-    <tableColumn id="5" name="DictionaryFile"/>
-    <tableColumn id="2" name="DictionaryName" dataDxfId="15"/>
-    <tableColumn id="3" name="Description" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Start" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dictionary ID" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DictionaryFile"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DictionaryName" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Definitions" displayName="Definitions" ref="A1:H11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:H11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Start" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="11">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="ID" dataDxfId="10"/>
-    <tableColumn id="7" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" name="DataType" dataDxfId="7"/>
-    <tableColumn id="5" name="QuantityClass" dataDxfId="6"/>
-    <tableColumn id="6" name="Authority" dataDxfId="5"/>
-    <tableColumn id="9" name="Reference" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D17" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D17"/>
-  <sortState ref="A2:C2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D17" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Start" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="2">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" name="SourceElement" dataDxfId="0"/>
-    <tableColumn id="3" name="ConditionalElement"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
-  <autoFilter ref="A1:C187"/>
-  <sortState ref="A2:C187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:C187" totalsRowShown="0">
+  <autoFilter ref="A1:C187" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C187">
     <sortCondition ref="C1:C187"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="DataType"/>
-    <tableColumn id="2" name="DataType2"/>
-    <tableColumn id="3" name="QuantityClass"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DataType"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DataType2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="QuantityClass"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1606,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1614,16 +1615,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="41.3125" customWidth="1"/>
-    <col min="3" max="3" width="26.3125" customWidth="1"/>
-    <col min="4" max="4" width="21.6875" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1649,7 +1650,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>233</v>
       </c>
@@ -1673,7 +1674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1681,20 +1682,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.8125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.6875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.6875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.6875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.8125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.8125" style="2"/>
+    <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B2841,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1744,7 +1745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B2842,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1768,7 +1769,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B2843,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1792,7 +1793,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B2844,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1816,7 +1817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B2845,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1840,7 +1841,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B2846,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1864,7 +1865,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B2847,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1888,7 +1889,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B2848,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1912,7 +1913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B2849,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1936,7 +1937,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B2850,1,FALSE)),"Not used","")</f>
         <v/>
@@ -1962,8 +1963,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3:H11" r:id="rId2" display="https://www.astm.org/d5715-00.html"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H3:H11" r:id="rId2" display="https://www.astm.org/d5715-00.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1973,15 +1974,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$178</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
-            <xm:f>'Y:\Users\dponti\GitHub\diggs-dictionaries\[DIGGSDictionaryClassificationCodeASTMD2487.xlsx]Lists'!#REF!</xm:f>
+            <xm:f>'/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/Y:\Users\dponti\GitHub\diggs-dictionaries\[DIGGSDictionaryClassificationCodeASTMD2487.xlsx]Lists'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E11</xm:sqref>
         </x14:dataValidation>
@@ -1992,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2001,15 +2002,15 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.8125" customWidth="1"/>
-    <col min="2" max="2" width="31.6875" customWidth="1"/>
-    <col min="3" max="3" width="86.1875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="86.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="93" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2035,7 +2036,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF(ISNA(VLOOKUP(B3,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2047,7 +2048,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2059,7 +2060,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2071,7 +2072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2083,7 +2084,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
@@ -2095,7 +2096,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2107,7 +2108,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2119,7 +2120,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2131,7 +2132,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2143,7 +2144,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2155,7 +2156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2167,7 +2168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2179,7 +2180,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2191,7 +2192,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2203,7 +2204,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!B$2:B$1836,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -2216,7 +2217,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="C2"/>
     <sortCondition ref="A2"/>
   </sortState>
@@ -2229,20 +2230,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.1875" customWidth="1"/>
-    <col min="3" max="3" width="54.1875" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>179</v>
       </c>
@@ -2262,7 +2263,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>175</v>
       </c>
@@ -2271,7 +2272,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>174</v>
       </c>
@@ -2280,7 +2281,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>189</v>
       </c>
@@ -2289,7 +2290,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>168</v>
       </c>
@@ -2298,7 +2299,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>167</v>
       </c>
@@ -2307,7 +2308,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>178</v>
       </c>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2326,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>166</v>
       </c>
@@ -2334,7 +2335,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>177</v>
       </c>
@@ -2343,7 +2344,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>172</v>
       </c>
@@ -2352,7 +2353,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>173</v>
       </c>
@@ -2361,7 +2362,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>171</v>
       </c>
@@ -2370,7 +2371,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>170</v>
       </c>
@@ -2379,7 +2380,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>169</v>
       </c>
@@ -2388,7 +2389,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>176</v>
       </c>
@@ -2397,14 +2398,14 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -2413,7 +2414,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>232</v>
       </c>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>182</v>
       </c>
@@ -2431,7 +2432,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>184</v>
       </c>
@@ -2440,7 +2441,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>183</v>
       </c>
@@ -2449,7 +2450,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>181</v>
       </c>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>192</v>
       </c>
@@ -2467,7 +2468,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>186</v>
       </c>
@@ -2476,7 +2477,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>187</v>
       </c>
@@ -2485,7 +2486,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>4</v>
       </c>
@@ -2494,13 +2495,13 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -2509,7 +2510,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>193</v>
       </c>
@@ -2518,7 +2519,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>191</v>
       </c>
@@ -2527,7 +2528,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>188</v>
       </c>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>185</v>
       </c>
@@ -2545,7 +2546,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>190</v>
       </c>
@@ -2554,7 +2555,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>231</v>
       </c>
@@ -2563,914 +2564,914 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>20</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>63</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>203</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>67</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="8"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="8"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>77</v>
       </c>
       <c r="D71" s="8"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>83</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>84</v>
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>85</v>
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>87</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>88</v>
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
         <v>89</v>
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
         <v>90</v>
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>91</v>
       </c>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>92</v>
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>94</v>
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>96</v>
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>97</v>
       </c>
       <c r="D94" s="8"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>98</v>
       </c>
       <c r="D95" s="8"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>100</v>
       </c>
       <c r="D97" s="8"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>101</v>
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>102</v>
       </c>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>103</v>
       </c>
       <c r="D100" s="8"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>104</v>
       </c>
       <c r="D101" s="8"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
         <v>105</v>
       </c>
       <c r="D102" s="8"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>204</v>
       </c>
       <c r="D103" s="8"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
         <v>205</v>
       </c>
       <c r="D104" s="8"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
         <v>206</v>
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>207</v>
       </c>
       <c r="D107" s="8"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>208</v>
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>106</v>
       </c>
       <c r="D109" s="8"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>107</v>
       </c>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>108</v>
       </c>
       <c r="D111" s="8"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>109</v>
       </c>
       <c r="D112" s="8"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>110</v>
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
         <v>111</v>
       </c>
       <c r="D114" s="8"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
         <v>112</v>
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
         <v>113</v>
       </c>
       <c r="D116" s="8"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
         <v>114</v>
       </c>
       <c r="D117" s="8"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
         <v>115</v>
       </c>
       <c r="D118" s="8"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
         <v>116</v>
       </c>
       <c r="D119" s="8"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="8"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="8"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
         <v>118</v>
       </c>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
         <v>119</v>
       </c>
       <c r="D123" s="8"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
         <v>120</v>
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
         <v>121</v>
       </c>
       <c r="D125" s="8"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
         <v>122</v>
       </c>
       <c r="D126" s="8"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="8"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
         <v>197</v>
       </c>
       <c r="D128" s="8"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
         <v>123</v>
       </c>
       <c r="D129" s="8"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
         <v>124</v>
       </c>
       <c r="D130" s="8"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
         <v>125</v>
       </c>
       <c r="D131" s="8"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
         <v>209</v>
       </c>
       <c r="D132" s="8"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
         <v>126</v>
       </c>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
         <v>127</v>
       </c>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
         <v>128</v>
       </c>
       <c r="D135" s="8"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>129</v>
       </c>
       <c r="D136" s="8"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>130</v>
       </c>
       <c r="D137" s="8"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>131</v>
       </c>
       <c r="D138" s="8"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>132</v>
       </c>
       <c r="D139" s="8"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>133</v>
       </c>
       <c r="D140" s="8"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
         <v>134</v>
       </c>
       <c r="D141" s="8"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>210</v>
       </c>
       <c r="D142" s="8"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>135</v>
       </c>
       <c r="D143" s="8"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>136</v>
       </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
         <v>222</v>
       </c>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>137</v>
       </c>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>138</v>
       </c>
       <c r="D147" s="8"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
         <v>139</v>
       </c>
       <c r="D148" s="8"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
         <v>140</v>
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
         <v>141</v>
       </c>
       <c r="D150" s="8"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
         <v>142</v>
       </c>
       <c r="D151" s="8"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
         <v>143</v>
       </c>
       <c r="D152" s="8"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
         <v>144</v>
       </c>
       <c r="D153" s="8"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
         <v>145</v>
       </c>
       <c r="D154" s="8"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
         <v>146</v>
       </c>
       <c r="D155" s="8"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
         <v>147</v>
       </c>
       <c r="D156" s="8"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
         <v>148</v>
       </c>
       <c r="D157" s="8"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
         <v>149</v>
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
         <v>150</v>
       </c>
       <c r="D159" s="8"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
         <v>151</v>
       </c>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
         <v>22</v>
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
         <v>211</v>
       </c>
       <c r="D162" s="8"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="8"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
         <v>21</v>
       </c>
       <c r="D164" s="8"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
         <v>152</v>
       </c>
       <c r="D165" s="8"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
         <v>153</v>
       </c>
       <c r="D166" s="8"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
         <v>154</v>
       </c>
       <c r="D167" s="8"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="8"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
         <v>212</v>
       </c>
       <c r="D169" s="8"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
         <v>155</v>
       </c>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
         <v>156</v>
       </c>
       <c r="D171" s="8"/>
     </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
         <v>157</v>
       </c>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>158</v>
       </c>
       <c r="D173" s="8"/>
     </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>159</v>
       </c>
       <c r="D174" s="8"/>
     </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
         <v>160</v>
       </c>
       <c r="D175" s="8"/>
     </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
         <v>161</v>
       </c>
       <c r="D176" s="8"/>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
         <v>162</v>
       </c>
       <c r="D177" s="8"/>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
         <v>213</v>
       </c>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
         <v>214</v>
       </c>
       <c r="D179" s="8"/>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
         <v>215</v>
       </c>
       <c r="D180" s="8"/>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
         <v>216</v>
       </c>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
         <v>217</v>
       </c>
       <c r="D182" s="8"/>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
         <v>218</v>
       </c>
       <c r="D183" s="8"/>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
         <v>219</v>
       </c>
       <c r="D184" s="8"/>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" s="8"/>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
         <v>163</v>
       </c>
       <c r="D186" s="9"/>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.5">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
         <v>164</v>
       </c>
       <c r="D187" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="F2:F176">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F176">
     <sortCondition ref="F2:F176"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
